--- a/client/public/formOptions.xlsx
+++ b/client/public/formOptions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Documentos\APP-UCV-FHYE-DEPLOY\client\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Documentos\APP-UCV-FHYE-DEPLOY\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A849BA76-3944-4B6C-82BC-50AB82B4C50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF3A61A-10D9-4013-9A49-DA3A417C4252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7CC5441-1861-44E6-B7DE-D508E46E2080}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>DEPARTAMENTO DE FUENTES</t>
   </si>
@@ -51,72 +51,30 @@
     <t>LABORATORIO DE NEUROPSICOLOGIA</t>
   </si>
   <si>
-    <t>DEPARTAMENTO DE NEUROPSICOLOGIA</t>
-  </si>
-  <si>
-    <t>UNIDAD DE PSICONEXOS</t>
-  </si>
-  <si>
     <t>LABORATORIO DE ANALISIS EXPERIMENTAL DE LA CO</t>
   </si>
   <si>
-    <t>DEPARTAMENTO DE INVESTIGACION FUNDAMENTAL</t>
-  </si>
-  <si>
     <t>UNIDAD DE PSICOLOGIA POLITICA</t>
   </si>
   <si>
-    <t>UNIDAD DE PSICOLOGIA Y SALUD</t>
-  </si>
-  <si>
-    <t>UNIDAD PSICOLOGIA AMBIENTAL</t>
-  </si>
-  <si>
     <t>UNIDAD DE DESARROLLO TEMPRANO Y FAMILIA</t>
   </si>
   <si>
-    <t>DEPARTAMENTO DE INVESTIGACION APLICADA</t>
-  </si>
-  <si>
     <t>INSTITUTO DE PSICOLOGIA</t>
   </si>
   <si>
-    <t>DEPARTAMENTO DE EXTENSION EN COMUNICACION Y DESARROLLO</t>
-  </si>
-  <si>
     <t>DEPARTAMENTO DE INVESTIGACION E INNOVACION</t>
   </si>
   <si>
     <t>DEPARTAMENTO DE FORMACION Y DESARROLLO DOCENTE</t>
   </si>
   <si>
-    <t>UNIDAD DE DOCUMENTACION Y RELACIONES INSTERINSTITUCIONALES</t>
-  </si>
-  <si>
     <t>INSTITUTO DE INVESTIGACIONES DE LA COMUNICACION</t>
   </si>
   <si>
-    <t>UNIDAD DE ECOLOGIA Y AMBIENTE</t>
-  </si>
-  <si>
-    <t>UNIDAD DE GEOGRAFIA FISICA</t>
-  </si>
-  <si>
-    <t>UNIDAD DE ENERGIA Y AMBIENTE</t>
-  </si>
-  <si>
     <t>DEPARTAMENTO DE INVESTIGACION</t>
   </si>
   <si>
-    <t>UNIDAD DE DESARROLLO REGIONAL</t>
-  </si>
-  <si>
-    <t>UNIDAD DE GEOGRAFIA REGIONAL DE VENEZUELA</t>
-  </si>
-  <si>
-    <t>UNIDAD DE TEORIA GEOGRAFICA Y ANALISIS ESPACIAL</t>
-  </si>
-  <si>
     <t>DEPARTAMENTO DE DOCUMENTACION E INFORMACION</t>
   </si>
   <si>
@@ -132,9 +90,6 @@
     <t>DEPARTAMENTO DE TEORIA E HISTORIA DE LA FILOSOFIA</t>
   </si>
   <si>
-    <t>DEPARTAMENTO DE FILOSOFIA E HISTORIA DE LA CIENCIA</t>
-  </si>
-  <si>
     <t>INSTITUTO DE FILOSOFIA</t>
   </si>
   <si>
@@ -144,9 +99,6 @@
     <t>DEPARTAMENTO DE INVESTIGACIONES DIALECTOLOGICAS</t>
   </si>
   <si>
-    <t>BIBLIOTECA "ANGEL ROSENBLAT"</t>
-  </si>
-  <si>
     <t>INSTITUTO DE FILOLOGIA ANDRES BELLO</t>
   </si>
   <si>
@@ -156,9 +108,6 @@
     <t>DEPARTAMENTO DE HISTORIA ECONOMICA Y SOCIALES</t>
   </si>
   <si>
-    <t>DEPARTAMENTO DE HISTORIA DE LA CIENCIA, LA TECNICA Y LA CULTURA</t>
-  </si>
-  <si>
     <t>CENTRO DE DOCUMENTACION "DR. EDUARDO ARCILA FARIAS"</t>
   </si>
   <si>
@@ -168,27 +117,15 @@
     <t>UNIDAD ACADEMICA</t>
   </si>
   <si>
-    <t>LABORATORIO DE COMPUTACION</t>
-  </si>
-  <si>
     <t>UNIDAD DE SERVICIO COMUNITARIO</t>
   </si>
   <si>
     <t>DEPARTAMENTO DE ADMINISTRACION</t>
   </si>
   <si>
-    <t>CENTRO INVESTIGACION Y DESARROLLO DE LAS CIENCIAS DE LA INFORMACION (CIDECI)</t>
-  </si>
-  <si>
     <t>ESCUELA DE BIBLIOTECOLOGIA Y ARCHIVOLOGIA</t>
   </si>
   <si>
-    <t>UNIDAD DE APOYO AL INVESTIGADOR</t>
-  </si>
-  <si>
-    <t>UNIDAD DE GESTION Y PROCESAMIENTO</t>
-  </si>
-  <si>
     <t>COORDINACION DE INVESTIGACION</t>
   </si>
   <si>
@@ -204,12 +141,6 @@
     <t>UNIDAD DE DEPORTE</t>
   </si>
   <si>
-    <t>UNIDAD DE EDUCACION CONTINUA</t>
-  </si>
-  <si>
-    <t>UNIDAD DE COMUNICACION PROTOCOLO Y RELACIONES INTERINSTITUCIONALES</t>
-  </si>
-  <si>
     <t>COORDINACION DE EXTENSION</t>
   </si>
   <si>
@@ -219,39 +150,6 @@
     <t>DEPARTAMENTO DE APOYO ADMINISTRATIVO</t>
   </si>
   <si>
-    <t>POSTGRADO EN LETRAS</t>
-  </si>
-  <si>
-    <t>POSTGRADO EN PSICOLOGIA</t>
-  </si>
-  <si>
-    <t>POSTGRADO EN COMUNICACION SOCIAL</t>
-  </si>
-  <si>
-    <t>POSTGRADO EN HISTORIA</t>
-  </si>
-  <si>
-    <t>POSTGRADO EN FILOSOFIA</t>
-  </si>
-  <si>
-    <t>POSTGRADO EN EDUCACION</t>
-  </si>
-  <si>
-    <t>POSTGRADO EN GEOGRAFIA</t>
-  </si>
-  <si>
-    <t>POSTGRADO EN LINGUISTICA</t>
-  </si>
-  <si>
-    <t>POSTGRADO EN ARTES</t>
-  </si>
-  <si>
-    <t>POSTGRADO EN BIBLIOTECOLOGIA Y ARCHIVOLOGIA</t>
-  </si>
-  <si>
-    <t>ESTUDIOS INTERDISCIPLINARIOS</t>
-  </si>
-  <si>
     <t>COORDINACION DE CURSOS DE POSTGRADO</t>
   </si>
   <si>
@@ -264,9 +162,6 @@
     <t>DEPARTAMENTO DE CONTROL DE ESTUDIOS</t>
   </si>
   <si>
-    <t>UNIDAD DE EDUCACION A DISTANCIA</t>
-  </si>
-  <si>
     <t>COORDINACION ACADEMICA</t>
   </si>
   <si>
@@ -316,6 +211,162 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE PROCESOS TECNICOS</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE METODOLOGIA DE LA INVESTIGACION</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE ESTUDIO Y COMPRESION DEL HOMBRE</t>
+  </si>
+  <si>
+    <t>ESCUELA DE COMUNICACION SOCIAL</t>
+  </si>
+  <si>
+    <t>BIBLIOTECA GUSTAVO LEAL</t>
+  </si>
+  <si>
+    <t>UNIDAD AUDIOVISUAL</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE PERIODISMO</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE CIENCIAS DE LA COMUNICACION</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE AUDIOVISUAL</t>
+  </si>
+  <si>
+    <t>ESCUELA DE EDUCACION</t>
+  </si>
+  <si>
+    <t>UNIDAD DE APOYO ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>UNIDAD DE EXTENSION</t>
+  </si>
+  <si>
+    <t>PROGRAMA COOPERATIVO DE FORMACION DOCENTE</t>
+  </si>
+  <si>
+    <t>COORDINACION GENERAL DE ESTUDIOS UNIVERSITARIOS SUPERVISADOS (EUS)</t>
+  </si>
+  <si>
+    <t>CENTRO REGIONAL BARQUISIMETO</t>
+  </si>
+  <si>
+    <t>CENTRO REGIONAL BARCELONA</t>
+  </si>
+  <si>
+    <t>CENTRO REGIONAL AMAZONAS</t>
+  </si>
+  <si>
+    <t>CENTRO REGIONAL BOLIVAR</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE TEORIAS E HISTORIAS DE LAS IDEAS PEDAGOGICAS</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE LENGUA Y COMUNICACION</t>
+  </si>
+  <si>
+    <t>CENTRO DE INVESTIGACIONES EDUCATIVAS (CIES)</t>
+  </si>
+  <si>
+    <t>BIBLIOTECA JESUS ALFARO ZAMORA</t>
+  </si>
+  <si>
+    <t>ESCUELA DE FILOSOFIA</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE HISTORIA DE LA FILOSOFIA</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE FILOSOFIA TEORETICA</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE FILOSOFIA DE LA PRAXIS Y C. H</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE LOGICA Y FILOSOFIA DE LAS CIENCIAS</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE FORMACION INSTRUMENTAL</t>
+  </si>
+  <si>
+    <t>ESCUELA DE GEOGRAFIA</t>
+  </si>
+  <si>
+    <t>MAPOTECA</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE GEOGRAFIA FISICA</t>
+  </si>
+  <si>
+    <t>ESCUELA DE HISTORIA</t>
+  </si>
+  <si>
+    <t>ESCUELA DE IDIOMAS MODERNOS</t>
+  </si>
+  <si>
+    <t>ESCUELA DE LETRAS</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE LITERATURAS CLASICAS Y OCCIDENTALES</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE TALLERES LITERARIOS</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE LITERATURA Y VIDA</t>
+  </si>
+  <si>
+    <t>ESCUELA DE PSICOLOGIA</t>
+  </si>
+  <si>
+    <t>BIBLIOTECA BELARMINO LAREZ</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO SUSTANTIVO</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE PSICOLOGIA CLINICA</t>
+  </si>
+  <si>
+    <t>SERVICIO DE PSICOLOGIA CLINICA</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO PSICOLOGIA EDUCATIVA</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE PSICOLOGIA INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE ASESORAMIENTO PSICOLOGICO Y ORIENTA</t>
+  </si>
+  <si>
+    <t>SERVICIO DE ASESORAMIENTO PSICOLOGICO</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE PSICOLOGIA SOCIAL</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE PSICOLOGIA CLINICA DINAMICA</t>
+  </si>
+  <si>
+    <t>ESCUELA DE ARTE</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE GESTION SOCIOCULTURALES</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE ARTES ESCENICAS</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE ARTES CINEMATOGRAFICAS</t>
   </si>
 </sst>
 </file>
@@ -362,9 +413,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB117B36-D7BC-47FA-B246-3AF07AF05374}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,13 +744,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -709,7 +761,7 @@
         <v>700000000</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -720,7 +772,7 @@
         <v>702000001</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -731,7 +783,7 @@
         <v>703000000</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -742,7 +794,7 @@
         <v>703000004</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -753,7 +805,7 @@
         <v>703000006</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -764,7 +816,7 @@
         <v>703010000</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -775,7 +827,7 @@
         <v>703020000</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,7 +838,7 @@
         <v>703030000</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -797,7 +849,7 @@
         <v>703030100</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -808,7 +860,7 @@
         <v>703030200</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,7 +871,7 @@
         <v>703030400</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,7 +882,7 @@
         <v>703040000</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -841,7 +893,7 @@
         <v>703050000</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,7 +904,7 @@
         <v>703060000</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,7 +915,7 @@
         <v>704000000</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,7 +926,7 @@
         <v>704000003</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -882,10 +934,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>704000004</v>
+        <v>704020000</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,10 +945,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>704020000</v>
+        <v>704030000</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,10 +956,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>704030000</v>
+        <v>704040000</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,10 +967,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>704040000</v>
+        <v>705000000</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -926,10 +978,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>705000000</v>
+        <v>705000002</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -937,10 +989,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>705000002</v>
+        <v>705010000</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -948,10 +1000,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>705000003</v>
+        <v>705040000</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -959,10 +1011,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>705000004</v>
+        <v>706000000</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -970,10 +1022,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>705000005</v>
+        <v>706000003</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -981,10 +1033,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>705000006</v>
+        <v>706000004</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -992,10 +1044,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>705000007</v>
+        <v>706000005</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1003,10 +1055,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>705000008</v>
+        <v>706060000</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1014,10 +1066,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>705000009</v>
+        <v>707000000</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1025,10 +1077,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>705000010</v>
+        <v>710000000</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1036,10 +1088,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>705000011</v>
+        <v>710020000</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1047,10 +1099,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>705000012</v>
+        <v>710030000</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1058,10 +1110,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>705000013</v>
+        <v>710040000</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1069,7 +1121,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>705010000</v>
+        <v>710050000</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
@@ -1080,10 +1132,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>705040000</v>
+        <v>710060000</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1091,10 +1143,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>706000000</v>
+        <v>711000000</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1102,10 +1154,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>706000001</v>
+        <v>711000004</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1113,10 +1165,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>706000002</v>
+        <v>711000005</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1124,10 +1176,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>706000003</v>
+        <v>711000006</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1135,10 +1187,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>706000004</v>
+        <v>711020000</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,10 +1198,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>706000005</v>
+        <v>711040000</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1157,10 +1209,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>706060000</v>
+        <v>711050000</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1168,10 +1220,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>707000000</v>
+        <v>712000000</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1179,10 +1231,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>707000001</v>
+        <v>712000002</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1190,10 +1242,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>707000002</v>
+        <v>712000003</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1201,10 +1253,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>710000000</v>
+        <v>712000014</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1212,10 +1264,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>710000002</v>
+        <v>712000016</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1223,10 +1275,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>710000004</v>
+        <v>712000017</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1234,10 +1286,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>710000005</v>
+        <v>712010000</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1245,10 +1297,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>710020000</v>
+        <v>712010200</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1256,10 +1308,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>732000000</v>
+        <v>712010300</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1267,10 +1319,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>732000001</v>
+        <v>712010400</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1278,10 +1330,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>732020000</v>
+        <v>712010500</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1289,10 +1341,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>732030000</v>
+        <v>712060200</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1300,10 +1352,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>732040000</v>
+        <v>712070000</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1311,10 +1363,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>733000000</v>
+        <v>712090000</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1322,10 +1374,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>733000001</v>
+        <v>712090100</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1333,10 +1385,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>733030000</v>
+        <v>713000000</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1344,10 +1396,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>733040000</v>
+        <v>713020000</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1355,10 +1407,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>735000000</v>
+        <v>713030000</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1366,10 +1418,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>735020000</v>
+        <v>713040000</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1377,10 +1429,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>735030000</v>
+        <v>713050000</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1388,10 +1440,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>735040000</v>
+        <v>713060000</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1399,10 +1451,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>735050000</v>
+        <v>714000000</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1410,10 +1462,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>736000000</v>
+        <v>714000006</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1421,10 +1473,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>736020000</v>
+        <v>714020000</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1432,10 +1484,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>736020100</v>
+        <v>714060000</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1443,10 +1495,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>736020200</v>
+        <v>715000000</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1454,10 +1506,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>736020300</v>
+        <v>716000000</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1465,10 +1517,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>736030000</v>
+        <v>717000000</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1476,10 +1528,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>736030100</v>
+        <v>717030000</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1487,10 +1539,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>736030200</v>
+        <v>717070000</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1498,10 +1550,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>736030300</v>
+        <v>717080000</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1509,10 +1561,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>737000000</v>
+        <v>718000000</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1520,10 +1572,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>737000003</v>
+        <v>718000005</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1531,10 +1583,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>737020000</v>
+        <v>718020000</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1542,10 +1594,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>737030000</v>
+        <v>718040000</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1553,10 +1605,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>737040000</v>
+        <v>718040003</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1564,10 +1616,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>738000000</v>
+        <v>718050000</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1575,10 +1627,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>738020000</v>
+        <v>718060000</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1586,10 +1638,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>738020100</v>
+        <v>718070000</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1597,10 +1649,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>738020300</v>
+        <v>718070004</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1608,10 +1660,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>738020400</v>
+        <v>718080000</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1619,10 +1671,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>738020500</v>
+        <v>718090000</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1630,10 +1682,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>738030000</v>
+        <v>719000000</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1641,10 +1693,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>738030100</v>
+        <v>719000003</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1652,10 +1704,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>738030200</v>
+        <v>719020000</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1663,10 +1715,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>738040000</v>
+        <v>719030000</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1674,10 +1726,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>738040100</v>
+        <v>719040000</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1685,10 +1737,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>739000000</v>
+        <v>732000000</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1696,10 +1748,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>739000100</v>
+        <v>732000001</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1707,10 +1759,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>739000200</v>
+        <v>732030000</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1718,10 +1770,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>739000300</v>
+        <v>732040000</v>
       </c>
       <c r="C94" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1729,10 +1781,252 @@
         <v>94</v>
       </c>
       <c r="B95">
+        <v>733000000</v>
+      </c>
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>733030000</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>733040000</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>735000000</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>735030000</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>735040000</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>735050000</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>736000000</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>736020000</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>736030000</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>737000000</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>737020000</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>737030000</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>738000000</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>738020100</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>738020500</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>738030100</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>738040100</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>739000000</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>739000100</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>739000200</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
         <v>739000300</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C116" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
+        <v>712000000</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
